--- a/similarities/split_global/harmonic_similarity_timestamps_185.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_185.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,395 +484,393 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C/5', 'D/3', 'G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
+          <t>('0:01:03.861000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000'), ('0:01:28.480000', '0:01:40.380000')]</t>
+          <t>('0:00:33.466326', '0:00:38.923015')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=88.48']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=33.466326</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.560000', '0:00:21.800000')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000'), ('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:00:44', '0:01:01.060000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:01', '0:00:05.360000'), ('0:02:04.300000', '0:02:09.240000'), ('0:00:34.640000', '0:00:39')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A#:min', 'D#:min', 'A#:min/F']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:03.584000', '0:00:13.841000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:08.400000', '0:00:12.140000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb', 'C:min7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db', 'Eb:min7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:24.840000')]</t>
+          <t>('0:00:40.640000', '0:00:48.830000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:00:37.750000', '0:00:41.660000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:14.100000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:13.159000', '0:00:16.555000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=7.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=13.159']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['Db', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:13.160000')]</t>
+          <t>('0:00:22.947687', '0:00:32.374988')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
+          <t>('0:00:14.480000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=14.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -882,320 +880,334 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:00:33.431496', '0:00:38.307687')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=33.431496</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['C/9', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:13.120000')]</t>
+          <t>('0:00:03.049795', '0:00:10.723990')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.480000', '0:00:20.960000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=3.049795</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F', 'F:7', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.170000', '0:00:32.220000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:32.280000')]</t>
+          <t>('0:01:17.720000', '0:01:28')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=22.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>['Eb:7', 'Ab', 'Gb:dim7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
+          <t>['Db:7', 'Gb', 'E:dim7/b3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.088054', '0:00:05.756807')]</t>
+          <t>('0:00:24.660000', '0:00:28.960000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000')]</t>
+          <t>('0:00:28.079297', '0:00:33.245736')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-199#t=2.088054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=24.66</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=28.079297</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7'], ['G:7', 'C:min7', 'F:7']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7'], ['D:7', 'G:min7', 'C:7']]</t>
+          <t>['B:min/F#', 'F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:03.800000'), ('0:00:00.580000', '0:00:01.800000')]</t>
+          <t>('0:00:42.140000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:21.240000'), ('0:00:12.630000', '0:00:16.560000')]</t>
+          <t>('0:00:01.980000', '0:00:08.680000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=2.6', 'https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.14</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=12.63']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:06.820000')]</t>
+          <t>('0:00:14.628775', '0:00:26.430680')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
